--- a/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
+++ b/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/miguel_losada_edu_uah_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{313B58E7-3250-4B62-8FEA-35152025FD98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8421EBB-73A1-46D0-90EA-B740FAEA9DED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTEFACTO7.1" sheetId="2" r:id="rId1"/>
@@ -312,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -534,11 +534,41 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thick">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,6 +646,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -935,16 +971,16 @@
   <dimension ref="A1:BV14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1166,7 +1202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -1244,7 +1280,7 @@
       <c r="BU2" s="16"/>
       <c r="BV2" s="17"/>
     </row>
-    <row r="3" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1322,7 +1358,7 @@
       <c r="BU3" s="19"/>
       <c r="BV3" s="20"/>
     </row>
-    <row r="4" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1400,7 +1436,7 @@
       <c r="BU4" s="19"/>
       <c r="BV4" s="20"/>
     </row>
-    <row r="5" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -1478,7 +1514,7 @@
       <c r="BU5" s="19"/>
       <c r="BV5" s="20"/>
     </row>
-    <row r="6" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -1556,7 +1592,7 @@
       <c r="BU6" s="19"/>
       <c r="BV6" s="20"/>
     </row>
-    <row r="7" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -1634,7 +1670,7 @@
       <c r="BU7" s="19"/>
       <c r="BV7" s="20"/>
     </row>
-    <row r="8" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -1712,7 +1748,7 @@
       <c r="BU8" s="19"/>
       <c r="BV8" s="20"/>
     </row>
-    <row r="9" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -1790,7 +1826,7 @@
       <c r="BU9" s="19"/>
       <c r="BV9" s="20"/>
     </row>
-    <row r="10" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -1868,7 +1904,7 @@
       <c r="BU10" s="19"/>
       <c r="BV10" s="20"/>
     </row>
-    <row r="11" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -1946,7 +1982,7 @@
       <c r="BU11" s="19"/>
       <c r="BV11" s="20"/>
     </row>
-    <row r="12" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -2024,7 +2060,7 @@
       <c r="BU12" s="19"/>
       <c r="BV12" s="20"/>
     </row>
-    <row r="13" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
@@ -2102,7 +2138,7 @@
       <c r="BU13" s="22"/>
       <c r="BV13" s="23"/>
     </row>
-    <row r="14" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2112,17 +2148,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F115FB-91EA-4D3D-AC52-FEB512D0E00D}">
   <dimension ref="A1:BV106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z56" sqref="Z56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ103" sqref="BJ103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="5"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2344,7 +2380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2422,7 +2458,7 @@
       <c r="BU2" s="8"/>
       <c r="BV2" s="9"/>
     </row>
-    <row r="3" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2500,7 +2536,7 @@
       <c r="BU3" s="11"/>
       <c r="BV3" s="12"/>
     </row>
-    <row r="4" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2578,7 +2614,7 @@
       <c r="BU4" s="11"/>
       <c r="BV4" s="12"/>
     </row>
-    <row r="5" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2656,7 +2692,7 @@
       <c r="BU5" s="11"/>
       <c r="BV5" s="24"/>
     </row>
-    <row r="6" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2734,7 +2770,7 @@
       <c r="BU6" s="11"/>
       <c r="BV6" s="24"/>
     </row>
-    <row r="7" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2752,8 +2788,8 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -2812,7 +2848,7 @@
       <c r="BU7" s="11"/>
       <c r="BV7" s="12"/>
     </row>
-    <row r="8" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2830,8 +2866,8 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -2890,7 +2926,7 @@
       <c r="BU8" s="11"/>
       <c r="BV8" s="12"/>
     </row>
-    <row r="9" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2908,8 +2944,8 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
@@ -2968,7 +3004,7 @@
       <c r="BU9" s="11"/>
       <c r="BV9" s="12"/>
     </row>
-    <row r="10" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2986,8 +3022,8 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
@@ -3046,7 +3082,7 @@
       <c r="BU10" s="11"/>
       <c r="BV10" s="12"/>
     </row>
-    <row r="11" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3064,8 +3100,8 @@
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
@@ -3124,7 +3160,7 @@
       <c r="BU11" s="11"/>
       <c r="BV11" s="12"/>
     </row>
-    <row r="12" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3142,8 +3178,8 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
@@ -3202,7 +3238,7 @@
       <c r="BU12" s="11"/>
       <c r="BV12" s="12"/>
     </row>
-    <row r="13" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3220,8 +3256,8 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -3280,7 +3316,7 @@
       <c r="BU13" s="11"/>
       <c r="BV13" s="12"/>
     </row>
-    <row r="14" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3298,8 +3334,8 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -3358,7 +3394,7 @@
       <c r="BU14" s="11"/>
       <c r="BV14" s="12"/>
     </row>
-    <row r="15" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3374,7 +3410,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="24"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -3436,7 +3472,7 @@
       <c r="BU15" s="11"/>
       <c r="BV15" s="12"/>
     </row>
-    <row r="16" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3452,7 +3488,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="24"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -3514,7 +3550,7 @@
       <c r="BU16" s="11"/>
       <c r="BV16" s="12"/>
     </row>
-    <row r="17" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3530,7 +3566,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="24"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -3592,7 +3628,7 @@
       <c r="BU17" s="11"/>
       <c r="BV17" s="12"/>
     </row>
-    <row r="18" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3608,7 +3644,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -3670,7 +3706,7 @@
       <c r="BU18" s="11"/>
       <c r="BV18" s="12"/>
     </row>
-    <row r="19" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3683,17 +3719,17 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -3708,8 +3744,8 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
       <c r="AL19" s="11"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
@@ -3748,7 +3784,7 @@
       <c r="BU19" s="11"/>
       <c r="BV19" s="12"/>
     </row>
-    <row r="20" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3761,17 +3797,17 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -3786,8 +3822,8 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
@@ -3826,7 +3862,7 @@
       <c r="BU20" s="11"/>
       <c r="BV20" s="12"/>
     </row>
-    <row r="21" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3839,17 +3875,17 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -3864,8 +3900,8 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
       <c r="AL21" s="11"/>
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
@@ -3904,7 +3940,7 @@
       <c r="BU21" s="11"/>
       <c r="BV21" s="12"/>
     </row>
-    <row r="22" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3916,7 +3952,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -3982,7 +4018,7 @@
       <c r="BU22" s="11"/>
       <c r="BV22" s="12"/>
     </row>
-    <row r="23" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3994,7 +4030,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="24"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -4060,7 +4096,7 @@
       <c r="BU23" s="11"/>
       <c r="BV23" s="12"/>
     </row>
-    <row r="24" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4072,7 +4108,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
-      <c r="J24" s="24"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -4138,7 +4174,7 @@
       <c r="BU24" s="11"/>
       <c r="BV24" s="12"/>
     </row>
-    <row r="25" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4150,7 +4186,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -4216,7 +4252,7 @@
       <c r="BU25" s="11"/>
       <c r="BV25" s="12"/>
     </row>
-    <row r="26" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4228,7 +4264,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -4294,7 +4330,7 @@
       <c r="BU26" s="11"/>
       <c r="BV26" s="12"/>
     </row>
-    <row r="27" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4306,7 +4342,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -4372,7 +4408,7 @@
       <c r="BU27" s="11"/>
       <c r="BV27" s="12"/>
     </row>
-    <row r="28" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4384,7 +4420,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="24"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -4450,7 +4486,7 @@
       <c r="BU28" s="11"/>
       <c r="BV28" s="12"/>
     </row>
-    <row r="29" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4462,7 +4498,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -4528,7 +4564,7 @@
       <c r="BU29" s="11"/>
       <c r="BV29" s="12"/>
     </row>
-    <row r="30" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4540,7 +4576,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -4606,7 +4642,7 @@
       <c r="BU30" s="11"/>
       <c r="BV30" s="12"/>
     </row>
-    <row r="31" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4618,7 +4654,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -4684,7 +4720,7 @@
       <c r="BU31" s="11"/>
       <c r="BV31" s="12"/>
     </row>
-    <row r="32" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4712,7 +4748,7 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="24"/>
+      <c r="Z32" s="25"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
@@ -4762,7 +4798,7 @@
       <c r="BU32" s="11"/>
       <c r="BV32" s="12"/>
     </row>
-    <row r="33" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4790,7 +4826,7 @@
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="24"/>
+      <c r="Z33" s="25"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
@@ -4840,7 +4876,7 @@
       <c r="BU33" s="11"/>
       <c r="BV33" s="12"/>
     </row>
-    <row r="34" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4868,7 +4904,7 @@
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
-      <c r="Z34" s="24"/>
+      <c r="Z34" s="25"/>
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
       <c r="AC34" s="11"/>
@@ -4918,7 +4954,7 @@
       <c r="BU34" s="11"/>
       <c r="BV34" s="12"/>
     </row>
-    <row r="35" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4946,7 +4982,7 @@
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="24"/>
+      <c r="Z35" s="25"/>
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
       <c r="AC35" s="11"/>
@@ -4996,7 +5032,7 @@
       <c r="BU35" s="11"/>
       <c r="BV35" s="12"/>
     </row>
-    <row r="36" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5024,7 +5060,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="24"/>
+      <c r="Z36" s="25"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
@@ -5074,7 +5110,7 @@
       <c r="BU36" s="11"/>
       <c r="BV36" s="12"/>
     </row>
-    <row r="37" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5082,10 +5118,10 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -5152,7 +5188,7 @@
       <c r="BU37" s="11"/>
       <c r="BV37" s="12"/>
     </row>
-    <row r="38" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5161,9 +5197,9 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -5230,7 +5266,7 @@
       <c r="BU38" s="11"/>
       <c r="BV38" s="12"/>
     </row>
-    <row r="39" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5239,9 +5275,9 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
@@ -5308,7 +5344,7 @@
       <c r="BU39" s="11"/>
       <c r="BV39" s="12"/>
     </row>
-    <row r="40" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5317,9 +5353,9 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -5386,7 +5422,7 @@
       <c r="BU40" s="11"/>
       <c r="BV40" s="12"/>
     </row>
-    <row r="41" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5395,7 +5431,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -5464,7 +5500,7 @@
       <c r="BU41" s="11"/>
       <c r="BV41" s="12"/>
     </row>
-    <row r="42" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5473,8 +5509,8 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -5542,7 +5578,7 @@
       <c r="BU42" s="11"/>
       <c r="BV42" s="12"/>
     </row>
-    <row r="43" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5551,8 +5587,8 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -5620,7 +5656,7 @@
       <c r="BU43" s="11"/>
       <c r="BV43" s="12"/>
     </row>
-    <row r="44" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5632,7 +5668,7 @@
       <c r="G44" s="11"/>
       <c r="H44"/>
       <c r="I44" s="11"/>
-      <c r="J44" s="24"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
@@ -5698,7 +5734,7 @@
       <c r="BU44" s="11"/>
       <c r="BV44" s="12"/>
     </row>
-    <row r="45" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5711,8 +5747,8 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
@@ -5730,12 +5766,12 @@
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
       <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
+      <c r="AH45" s="25"/>
+      <c r="AI45" s="25"/>
       <c r="AJ45" s="11"/>
       <c r="AK45" s="11"/>
       <c r="AL45" s="11"/>
@@ -5776,7 +5812,7 @@
       <c r="BU45" s="11"/>
       <c r="BV45" s="12"/>
     </row>
-    <row r="46" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5789,8 +5825,8 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
@@ -5808,12 +5844,12 @@
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
       <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
+      <c r="AH46" s="25"/>
+      <c r="AI46" s="25"/>
       <c r="AJ46" s="11"/>
       <c r="AK46" s="11"/>
       <c r="AL46" s="11"/>
@@ -5854,7 +5890,7 @@
       <c r="BU46" s="11"/>
       <c r="BV46" s="12"/>
     </row>
-    <row r="47" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5867,9 +5903,9 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -5932,7 +5968,7 @@
       <c r="BU47" s="11"/>
       <c r="BV47" s="12"/>
     </row>
-    <row r="48" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5945,10 +5981,10 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="24"/>
+      <c r="N48" s="25"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
@@ -6010,7 +6046,7 @@
       <c r="BU48" s="11"/>
       <c r="BV48" s="12"/>
     </row>
-    <row r="49" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6040,11 +6076,11 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
       <c r="AA49" s="11"/>
-      <c r="AB49" s="24"/>
+      <c r="AB49" s="25"/>
       <c r="AC49"/>
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
-      <c r="AF49" s="24"/>
+      <c r="AF49" s="25"/>
       <c r="AG49"/>
       <c r="AH49" s="11"/>
       <c r="AI49" s="11"/>
@@ -6088,7 +6124,7 @@
       <c r="BU49" s="11"/>
       <c r="BV49" s="12"/>
     </row>
-    <row r="50" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6119,11 +6155,11 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
-      <c r="AC50" s="24"/>
+      <c r="AC50" s="25"/>
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
       <c r="AF50" s="11"/>
-      <c r="AG50" s="24"/>
+      <c r="AG50" s="25"/>
       <c r="AH50" s="11"/>
       <c r="AI50" s="11"/>
       <c r="AJ50" s="11"/>
@@ -6166,7 +6202,7 @@
       <c r="BU50" s="11"/>
       <c r="BV50" s="12"/>
     </row>
-    <row r="51" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6179,8 +6215,8 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
@@ -6196,11 +6232,11 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
       <c r="AA51" s="11"/>
-      <c r="AB51" s="24"/>
+      <c r="AB51" s="25"/>
       <c r="AC51"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
-      <c r="AF51" s="24"/>
+      <c r="AF51" s="25"/>
       <c r="AG51"/>
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
@@ -6244,7 +6280,7 @@
       <c r="BU51" s="11"/>
       <c r="BV51" s="12"/>
     </row>
-    <row r="52" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6257,8 +6293,8 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
@@ -6275,11 +6311,11 @@
       <c r="Z52" s="11"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
-      <c r="AC52" s="24"/>
+      <c r="AC52" s="25"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
       <c r="AF52" s="11"/>
-      <c r="AG52" s="24"/>
+      <c r="AG52" s="25"/>
       <c r="AH52" s="11"/>
       <c r="AI52" s="11"/>
       <c r="AJ52" s="11"/>
@@ -6322,7 +6358,7 @@
       <c r="BU52" s="11"/>
       <c r="BV52" s="12"/>
     </row>
-    <row r="53" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6339,7 +6375,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="24"/>
+      <c r="O53" s="25"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -6351,7 +6387,7 @@
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-      <c r="AA53" s="24"/>
+      <c r="AA53" s="25"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
@@ -6400,7 +6436,7 @@
       <c r="BU53" s="11"/>
       <c r="BV53" s="12"/>
     </row>
-    <row r="54" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6418,7 +6454,7 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
-      <c r="P54" s="24"/>
+      <c r="P54" s="25"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -6428,7 +6464,7 @@
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
       <c r="Y54" s="11"/>
-      <c r="Z54" s="24"/>
+      <c r="Z54" s="25"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
@@ -6478,7 +6514,7 @@
       <c r="BU54" s="11"/>
       <c r="BV54" s="12"/>
     </row>
-    <row r="55" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6496,8 +6532,8 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -6556,7 +6592,7 @@
       <c r="BU55" s="11"/>
       <c r="BV55" s="12"/>
     </row>
-    <row r="56" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6584,7 +6620,7 @@
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
-      <c r="Z56" s="24"/>
+      <c r="Z56" s="25"/>
       <c r="AA56"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
@@ -6634,7 +6670,7 @@
       <c r="BU56" s="11"/>
       <c r="BV56" s="12"/>
     </row>
-    <row r="57" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6651,7 +6687,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
-      <c r="O57" s="24"/>
+      <c r="O57" s="25"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
@@ -6663,7 +6699,7 @@
       <c r="X57" s="11"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
-      <c r="AA57" s="24"/>
+      <c r="AA57" s="25"/>
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
@@ -6712,7 +6748,7 @@
       <c r="BU57" s="11"/>
       <c r="BV57" s="12"/>
     </row>
-    <row r="58" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6729,7 +6765,7 @@
       <c r="L58"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
-      <c r="O58" s="24"/>
+      <c r="O58" s="25"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
@@ -6741,7 +6777,7 @@
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
-      <c r="AA58" s="24"/>
+      <c r="AA58" s="25"/>
       <c r="AB58" s="11"/>
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
@@ -6790,7 +6826,7 @@
       <c r="BU58" s="11"/>
       <c r="BV58" s="12"/>
     </row>
-    <row r="59" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6803,7 +6839,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="24"/>
+      <c r="K59" s="25"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
@@ -6819,7 +6855,7 @@
       <c r="X59" s="11"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
-      <c r="AA59" s="24"/>
+      <c r="AA59" s="25"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
@@ -6868,7 +6904,7 @@
       <c r="BU59" s="11"/>
       <c r="BV59" s="12"/>
     </row>
-    <row r="60" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6881,11 +6917,11 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="24"/>
+      <c r="K60" s="25"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="24"/>
+      <c r="O60" s="25"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
@@ -6897,7 +6933,7 @@
       <c r="X60" s="11"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
-      <c r="AA60" s="24"/>
+      <c r="AA60" s="25"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
@@ -6946,7 +6982,7 @@
       <c r="BU60" s="11"/>
       <c r="BV60" s="12"/>
     </row>
-    <row r="61" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -6960,13 +6996,13 @@
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
-      <c r="L61" s="24"/>
+      <c r="L61" s="25"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
-      <c r="R61" s="24"/>
+      <c r="R61" s="25"/>
       <c r="S61" s="11"/>
       <c r="T61"/>
       <c r="U61" s="11"/>
@@ -7024,7 +7060,7 @@
       <c r="BU61" s="11"/>
       <c r="BV61" s="12"/>
     </row>
-    <row r="62" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7045,7 +7081,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
       <c r="R62"/>
-      <c r="S62" s="24"/>
+      <c r="S62" s="25"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
@@ -7102,7 +7138,7 @@
       <c r="BU62" s="11"/>
       <c r="BV62" s="12"/>
     </row>
-    <row r="63" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7124,7 +7160,7 @@
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63"/>
-      <c r="T63" s="24"/>
+      <c r="T63" s="25"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
@@ -7180,7 +7216,7 @@
       <c r="BU63" s="11"/>
       <c r="BV63" s="12"/>
     </row>
-    <row r="64" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7200,7 +7236,7 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
-      <c r="R64" s="24"/>
+      <c r="R64" s="25"/>
       <c r="S64" s="11"/>
       <c r="T64"/>
       <c r="U64" s="11"/>
@@ -7258,7 +7294,7 @@
       <c r="BU64" s="11"/>
       <c r="BV64" s="12"/>
     </row>
-    <row r="65" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7279,7 +7315,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
-      <c r="S65" s="24"/>
+      <c r="S65" s="25"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11"/>
       <c r="V65" s="11"/>
@@ -7336,7 +7372,7 @@
       <c r="BU65" s="11"/>
       <c r="BV65" s="12"/>
     </row>
-    <row r="66" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7358,7 +7394,7 @@
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
-      <c r="T66" s="24"/>
+      <c r="T66" s="25"/>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
@@ -7414,7 +7450,7 @@
       <c r="BU66" s="11"/>
       <c r="BV66" s="12"/>
     </row>
-    <row r="67" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7454,7 +7490,7 @@
       <c r="AI67" s="11"/>
       <c r="AJ67" s="11"/>
       <c r="AK67" s="11"/>
-      <c r="AL67" s="24"/>
+      <c r="AL67" s="25"/>
       <c r="AM67" s="11"/>
       <c r="AN67" s="11"/>
       <c r="AO67" s="11"/>
@@ -7492,7 +7528,7 @@
       <c r="BU67" s="11"/>
       <c r="BV67" s="12"/>
     </row>
-    <row r="68" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7533,7 +7569,7 @@
       <c r="AJ68" s="11"/>
       <c r="AK68" s="11"/>
       <c r="AL68" s="11"/>
-      <c r="AM68" s="24"/>
+      <c r="AM68" s="25"/>
       <c r="AN68" s="11"/>
       <c r="AO68" s="11"/>
       <c r="AP68" s="11"/>
@@ -7570,7 +7606,7 @@
       <c r="BU68" s="11"/>
       <c r="BV68" s="12"/>
     </row>
-    <row r="69" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7611,7 +7647,7 @@
       <c r="AJ69" s="11"/>
       <c r="AK69" s="11"/>
       <c r="AL69" s="11"/>
-      <c r="AM69" s="24"/>
+      <c r="AM69" s="25"/>
       <c r="AN69" s="11"/>
       <c r="AO69" s="11"/>
       <c r="AP69" s="11"/>
@@ -7648,7 +7684,7 @@
       <c r="BU69" s="11"/>
       <c r="BV69" s="12"/>
     </row>
-    <row r="70" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7690,7 +7726,7 @@
       <c r="AK70" s="11"/>
       <c r="AL70" s="11"/>
       <c r="AM70" s="11"/>
-      <c r="AN70" s="24"/>
+      <c r="AN70" s="25"/>
       <c r="AO70" s="11"/>
       <c r="AP70" s="11"/>
       <c r="AQ70" s="11"/>
@@ -7726,7 +7762,7 @@
       <c r="BU70" s="11"/>
       <c r="BV70" s="12"/>
     </row>
-    <row r="71" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -7769,7 +7805,7 @@
       <c r="AL71" s="11"/>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
-      <c r="AO71" s="24"/>
+      <c r="AO71" s="25"/>
       <c r="AP71" s="11"/>
       <c r="AQ71" s="11"/>
       <c r="AR71" s="11"/>
@@ -7804,7 +7840,7 @@
       <c r="BU71" s="11"/>
       <c r="BV71" s="12"/>
     </row>
-    <row r="72" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -7847,7 +7883,7 @@
       <c r="AL72" s="11"/>
       <c r="AM72" s="11"/>
       <c r="AN72" s="11"/>
-      <c r="AO72" s="24"/>
+      <c r="AO72" s="25"/>
       <c r="AP72" s="11"/>
       <c r="AQ72" s="11"/>
       <c r="AR72" s="11"/>
@@ -7882,7 +7918,7 @@
       <c r="BU72" s="11"/>
       <c r="BV72" s="12"/>
     </row>
-    <row r="73" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -7926,7 +7962,7 @@
       <c r="AM73" s="11"/>
       <c r="AN73" s="11"/>
       <c r="AO73" s="11"/>
-      <c r="AP73" s="24"/>
+      <c r="AP73" s="25"/>
       <c r="AQ73" s="11"/>
       <c r="AR73" s="11"/>
       <c r="AS73" s="11"/>
@@ -7960,7 +7996,7 @@
       <c r="BU73" s="11"/>
       <c r="BV73" s="12"/>
     </row>
-    <row r="74" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -8005,7 +8041,7 @@
       <c r="AN74" s="11"/>
       <c r="AO74" s="11"/>
       <c r="AP74" s="11"/>
-      <c r="AQ74" s="24"/>
+      <c r="AQ74" s="25"/>
       <c r="AR74" s="11"/>
       <c r="AS74" s="11"/>
       <c r="AT74" s="11"/>
@@ -8038,7 +8074,7 @@
       <c r="BU74" s="11"/>
       <c r="BV74" s="12"/>
     </row>
-    <row r="75" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -8084,7 +8120,7 @@
       <c r="AO75" s="11"/>
       <c r="AP75" s="11"/>
       <c r="AQ75" s="11"/>
-      <c r="AR75" s="24"/>
+      <c r="AR75" s="25"/>
       <c r="AS75" s="11"/>
       <c r="AT75" s="11"/>
       <c r="AU75" s="11"/>
@@ -8116,7 +8152,7 @@
       <c r="BU75" s="11"/>
       <c r="BV75" s="12"/>
     </row>
-    <row r="76" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -8163,7 +8199,7 @@
       <c r="AP76" s="11"/>
       <c r="AQ76" s="11"/>
       <c r="AR76" s="11"/>
-      <c r="AS76" s="24"/>
+      <c r="AS76" s="25"/>
       <c r="AT76" s="11"/>
       <c r="AU76" s="11"/>
       <c r="AV76" s="11"/>
@@ -8194,7 +8230,7 @@
       <c r="BU76" s="11"/>
       <c r="BV76" s="12"/>
     </row>
-    <row r="77" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -8242,7 +8278,7 @@
       <c r="AQ77" s="11"/>
       <c r="AR77" s="11"/>
       <c r="AS77" s="11"/>
-      <c r="AT77" s="24"/>
+      <c r="AT77" s="25"/>
       <c r="AU77" s="11"/>
       <c r="AV77" s="11"/>
       <c r="AW77" s="11"/>
@@ -8272,7 +8308,7 @@
       <c r="BU77" s="11"/>
       <c r="BV77" s="12"/>
     </row>
-    <row r="78" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -8321,7 +8357,7 @@
       <c r="AR78" s="11"/>
       <c r="AS78" s="11"/>
       <c r="AT78" s="11"/>
-      <c r="AU78" s="24"/>
+      <c r="AU78" s="25"/>
       <c r="AV78" s="11"/>
       <c r="AW78" s="11"/>
       <c r="AX78" s="11"/>
@@ -8350,7 +8386,7 @@
       <c r="BU78" s="11"/>
       <c r="BV78" s="12"/>
     </row>
-    <row r="79" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -8400,7 +8436,7 @@
       <c r="AS79" s="11"/>
       <c r="AT79" s="11"/>
       <c r="AU79" s="11"/>
-      <c r="AV79" s="24"/>
+      <c r="AV79" s="25"/>
       <c r="AW79" s="11"/>
       <c r="AX79" s="11"/>
       <c r="AY79" s="11"/>
@@ -8428,7 +8464,7 @@
       <c r="BU79" s="11"/>
       <c r="BV79" s="12"/>
     </row>
-    <row r="80" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -8479,7 +8515,7 @@
       <c r="AT80" s="11"/>
       <c r="AU80" s="11"/>
       <c r="AV80" s="11"/>
-      <c r="AW80" s="24"/>
+      <c r="AW80" s="25"/>
       <c r="AX80" s="11"/>
       <c r="AY80" s="11"/>
       <c r="AZ80" s="11"/>
@@ -8506,7 +8542,7 @@
       <c r="BU80" s="11"/>
       <c r="BV80" s="12"/>
     </row>
-    <row r="81" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -8558,7 +8594,7 @@
       <c r="AU81" s="11"/>
       <c r="AV81" s="11"/>
       <c r="AW81" s="11"/>
-      <c r="AX81" s="24"/>
+      <c r="AX81" s="25"/>
       <c r="AY81" s="11"/>
       <c r="AZ81" s="11"/>
       <c r="BA81" s="11"/>
@@ -8584,7 +8620,7 @@
       <c r="BU81" s="11"/>
       <c r="BV81" s="12"/>
     </row>
-    <row r="82" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -8637,7 +8673,7 @@
       <c r="AV82" s="11"/>
       <c r="AW82" s="11"/>
       <c r="AX82" s="11"/>
-      <c r="AY82" s="24"/>
+      <c r="AY82" s="25"/>
       <c r="AZ82" s="11"/>
       <c r="BA82" s="11"/>
       <c r="BB82" s="11"/>
@@ -8662,7 +8698,7 @@
       <c r="BU82" s="11"/>
       <c r="BV82" s="12"/>
     </row>
-    <row r="83" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -8716,7 +8752,7 @@
       <c r="AW83" s="11"/>
       <c r="AX83" s="11"/>
       <c r="AY83" s="11"/>
-      <c r="AZ83" s="24"/>
+      <c r="AZ83" s="25"/>
       <c r="BA83" s="11"/>
       <c r="BB83" s="11"/>
       <c r="BC83" s="11"/>
@@ -8740,7 +8776,7 @@
       <c r="BU83" s="11"/>
       <c r="BV83" s="12"/>
     </row>
-    <row r="84" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -8795,7 +8831,7 @@
       <c r="AX84" s="11"/>
       <c r="AY84" s="11"/>
       <c r="AZ84" s="11"/>
-      <c r="BA84" s="24"/>
+      <c r="BA84" s="25"/>
       <c r="BB84" s="11"/>
       <c r="BC84" s="11"/>
       <c r="BD84" s="11"/>
@@ -8818,7 +8854,7 @@
       <c r="BU84" s="11"/>
       <c r="BV84" s="12"/>
     </row>
-    <row r="85" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -8874,7 +8910,7 @@
       <c r="AY85" s="11"/>
       <c r="AZ85" s="11"/>
       <c r="BA85" s="11"/>
-      <c r="BB85" s="24"/>
+      <c r="BB85" s="25"/>
       <c r="BC85" s="11"/>
       <c r="BD85" s="11"/>
       <c r="BE85" s="11"/>
@@ -8896,7 +8932,7 @@
       <c r="BU85" s="11"/>
       <c r="BV85" s="12"/>
     </row>
-    <row r="86" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -8953,7 +8989,7 @@
       <c r="AZ86" s="11"/>
       <c r="BA86" s="11"/>
       <c r="BB86" s="11"/>
-      <c r="BC86" s="24"/>
+      <c r="BC86" s="25"/>
       <c r="BD86" s="11"/>
       <c r="BE86" s="11"/>
       <c r="BF86" s="11"/>
@@ -8974,7 +9010,7 @@
       <c r="BU86" s="11"/>
       <c r="BV86" s="12"/>
     </row>
-    <row r="87" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -9032,7 +9068,7 @@
       <c r="BA87" s="11"/>
       <c r="BB87" s="11"/>
       <c r="BC87" s="11"/>
-      <c r="BD87" s="24"/>
+      <c r="BD87" s="25"/>
       <c r="BE87" s="11"/>
       <c r="BF87" s="11"/>
       <c r="BG87" s="11"/>
@@ -9052,7 +9088,7 @@
       <c r="BU87" s="11"/>
       <c r="BV87" s="12"/>
     </row>
-    <row r="88" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -9111,7 +9147,7 @@
       <c r="BB88" s="11"/>
       <c r="BC88" s="11"/>
       <c r="BD88" s="11"/>
-      <c r="BE88" s="24"/>
+      <c r="BE88" s="25"/>
       <c r="BF88" s="11"/>
       <c r="BG88" s="11"/>
       <c r="BH88" s="11"/>
@@ -9130,7 +9166,7 @@
       <c r="BU88" s="11"/>
       <c r="BV88" s="12"/>
     </row>
-    <row r="89" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -9190,7 +9226,7 @@
       <c r="BC89" s="11"/>
       <c r="BD89" s="11"/>
       <c r="BE89" s="11"/>
-      <c r="BF89" s="24"/>
+      <c r="BF89" s="25"/>
       <c r="BG89" s="11"/>
       <c r="BH89" s="11"/>
       <c r="BI89" s="11"/>
@@ -9208,7 +9244,7 @@
       <c r="BU89" s="11"/>
       <c r="BV89" s="12"/>
     </row>
-    <row r="90" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -9269,7 +9305,7 @@
       <c r="BD90" s="11"/>
       <c r="BE90" s="11"/>
       <c r="BF90" s="11"/>
-      <c r="BG90" s="24"/>
+      <c r="BG90" s="25"/>
       <c r="BH90" s="11"/>
       <c r="BI90" s="11"/>
       <c r="BJ90" s="11"/>
@@ -9286,7 +9322,7 @@
       <c r="BU90" s="11"/>
       <c r="BV90" s="12"/>
     </row>
-    <row r="91" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -9348,7 +9384,7 @@
       <c r="BE91" s="11"/>
       <c r="BF91" s="11"/>
       <c r="BG91" s="11"/>
-      <c r="BH91" s="24"/>
+      <c r="BH91" s="25"/>
       <c r="BI91" s="11"/>
       <c r="BJ91" s="11"/>
       <c r="BK91" s="11"/>
@@ -9364,7 +9400,7 @@
       <c r="BU91" s="11"/>
       <c r="BV91" s="12"/>
     </row>
-    <row r="92" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -9427,7 +9463,7 @@
       <c r="BF92" s="11"/>
       <c r="BG92" s="11"/>
       <c r="BH92" s="11"/>
-      <c r="BI92" s="24"/>
+      <c r="BI92" s="25"/>
       <c r="BJ92" s="11"/>
       <c r="BK92" s="11"/>
       <c r="BL92" s="11"/>
@@ -9442,7 +9478,7 @@
       <c r="BU92" s="11"/>
       <c r="BV92" s="12"/>
     </row>
-    <row r="93" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -9506,7 +9542,7 @@
       <c r="BG93" s="11"/>
       <c r="BH93" s="11"/>
       <c r="BI93" s="11"/>
-      <c r="BJ93" s="24"/>
+      <c r="BJ93" s="25"/>
       <c r="BK93" s="11"/>
       <c r="BL93" s="11"/>
       <c r="BM93" s="11"/>
@@ -9520,7 +9556,7 @@
       <c r="BU93" s="11"/>
       <c r="BV93" s="12"/>
     </row>
-    <row r="94" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -9585,7 +9621,7 @@
       <c r="BH94" s="11"/>
       <c r="BI94" s="11"/>
       <c r="BJ94" s="11"/>
-      <c r="BK94" s="24"/>
+      <c r="BK94" s="25"/>
       <c r="BL94" s="11"/>
       <c r="BM94" s="11"/>
       <c r="BN94" s="11"/>
@@ -9598,7 +9634,7 @@
       <c r="BU94" s="11"/>
       <c r="BV94" s="12"/>
     </row>
-    <row r="95" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -9664,7 +9700,7 @@
       <c r="BI95" s="11"/>
       <c r="BJ95" s="11"/>
       <c r="BK95" s="11"/>
-      <c r="BL95" s="24"/>
+      <c r="BL95" s="25"/>
       <c r="BM95" s="11"/>
       <c r="BN95" s="11"/>
       <c r="BO95" s="11"/>
@@ -9676,7 +9712,7 @@
       <c r="BU95" s="11"/>
       <c r="BV95" s="12"/>
     </row>
-    <row r="96" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -9743,7 +9779,7 @@
       <c r="BJ96" s="11"/>
       <c r="BK96" s="11"/>
       <c r="BL96" s="11"/>
-      <c r="BM96" s="24"/>
+      <c r="BM96" s="25"/>
       <c r="BN96" s="11"/>
       <c r="BO96" s="11"/>
       <c r="BP96" s="11"/>
@@ -9754,7 +9790,7 @@
       <c r="BU96" s="11"/>
       <c r="BV96" s="12"/>
     </row>
-    <row r="97" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -9822,7 +9858,7 @@
       <c r="BK97" s="11"/>
       <c r="BL97" s="11"/>
       <c r="BM97" s="11"/>
-      <c r="BN97" s="24"/>
+      <c r="BN97" s="25"/>
       <c r="BO97" s="11"/>
       <c r="BP97" s="11"/>
       <c r="BQ97" s="11"/>
@@ -9832,7 +9868,7 @@
       <c r="BU97" s="11"/>
       <c r="BV97" s="12"/>
     </row>
-    <row r="98" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -9901,7 +9937,7 @@
       <c r="BL98" s="11"/>
       <c r="BM98" s="11"/>
       <c r="BN98" s="11"/>
-      <c r="BO98" s="24"/>
+      <c r="BO98" s="25"/>
       <c r="BP98" s="11"/>
       <c r="BQ98" s="11"/>
       <c r="BR98" s="11"/>
@@ -9910,7 +9946,7 @@
       <c r="BU98" s="11"/>
       <c r="BV98" s="12"/>
     </row>
-    <row r="99" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -9980,7 +10016,7 @@
       <c r="BM99" s="11"/>
       <c r="BN99" s="11"/>
       <c r="BO99" s="11"/>
-      <c r="BP99" s="24"/>
+      <c r="BP99" s="25"/>
       <c r="BQ99" s="11"/>
       <c r="BR99" s="11"/>
       <c r="BS99" s="11"/>
@@ -9988,7 +10024,7 @@
       <c r="BU99" s="11"/>
       <c r="BV99" s="12"/>
     </row>
-    <row r="100" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10059,14 +10095,14 @@
       <c r="BN100" s="11"/>
       <c r="BO100" s="11"/>
       <c r="BP100" s="11"/>
-      <c r="BQ100" s="24"/>
+      <c r="BQ100" s="25"/>
       <c r="BR100" s="11"/>
       <c r="BS100" s="11"/>
       <c r="BT100" s="11"/>
       <c r="BU100" s="11"/>
       <c r="BV100" s="12"/>
     </row>
-    <row r="101" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10138,13 +10174,13 @@
       <c r="BO101" s="11"/>
       <c r="BP101" s="11"/>
       <c r="BQ101" s="11"/>
-      <c r="BR101" s="24"/>
+      <c r="BR101" s="25"/>
       <c r="BS101" s="11"/>
       <c r="BT101" s="11"/>
       <c r="BU101" s="11"/>
       <c r="BV101" s="12"/>
     </row>
-    <row r="102" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -10217,12 +10253,12 @@
       <c r="BP102" s="11"/>
       <c r="BQ102" s="11"/>
       <c r="BR102" s="11"/>
-      <c r="BS102" s="24"/>
+      <c r="BS102" s="25"/>
       <c r="BT102" s="11"/>
       <c r="BU102" s="11"/>
       <c r="BV102" s="12"/>
     </row>
-    <row r="103" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -10296,11 +10332,11 @@
       <c r="BQ103" s="11"/>
       <c r="BR103" s="11"/>
       <c r="BS103" s="11"/>
-      <c r="BT103" s="24"/>
+      <c r="BT103" s="25"/>
       <c r="BU103" s="11"/>
       <c r="BV103" s="12"/>
     </row>
-    <row r="104" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -10375,10 +10411,10 @@
       <c r="BR104" s="11"/>
       <c r="BS104" s="11"/>
       <c r="BT104" s="11"/>
-      <c r="BU104" s="24"/>
+      <c r="BU104" s="25"/>
       <c r="BV104" s="12"/>
     </row>
-    <row r="105" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -10454,9 +10490,9 @@
       <c r="BS105" s="14"/>
       <c r="BT105" s="14"/>
       <c r="BU105" s="14"/>
-      <c r="BV105" s="24"/>
-    </row>
-    <row r="106" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="BV105" s="28"/>
+    </row>
+    <row r="106" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
+++ b/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER1\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{F8421EBB-73A1-46D0-90EA-B740FAEA9DED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{CDC87851-641F-4B1F-B1F8-C74829945183}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F8421EBB-73A1-46D0-90EA-B740FAEA9DED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2DC5A5B2-FA20-47D1-9041-8EEE6868171D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
@@ -2168,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F115FB-91EA-4D3D-AC52-FEB512D0E00D}">
   <dimension ref="A1:BV106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>

--- a/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
+++ b/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER1\ARTEFACTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\REPOSITORIOSGIT\SW\ITER1\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{F8421EBB-73A1-46D0-90EA-B740FAEA9DED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{2DC5A5B2-FA20-47D1-9041-8EEE6868171D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B63F595-5510-401D-9DC7-045A3B18150B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTEFACTO7.1" sheetId="2" r:id="rId1"/>
@@ -994,13 +994,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="BU2" s="15"/>
       <c r="BV2" s="16"/>
     </row>
-    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="BU3" s="18"/>
       <c r="BV3" s="19"/>
     </row>
-    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="BU4" s="18"/>
       <c r="BV4" s="19"/>
     </row>
-    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="BU5" s="18"/>
       <c r="BV5" s="19"/>
     </row>
-    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="BU6" s="18"/>
       <c r="BV6" s="19"/>
     </row>
-    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="BU7" s="18"/>
       <c r="BV7" s="19"/>
     </row>
-    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="BU8" s="18"/>
       <c r="BV8" s="19"/>
     </row>
-    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="BU9" s="18"/>
       <c r="BV9" s="19"/>
     </row>
-    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="BU10" s="18"/>
       <c r="BV10" s="19"/>
     </row>
-    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="BU11" s="18"/>
       <c r="BV11" s="19"/>
     </row>
-    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="BU12" s="18"/>
       <c r="BV12" s="19"/>
     </row>
-    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="BU13" s="21"/>
       <c r="BV13" s="22"/>
     </row>
-    <row r="14" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2168,17 +2168,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F115FB-91EA-4D3D-AC52-FEB512D0E00D}">
   <dimension ref="A1:BV106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="5"/>
+    <col min="2" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="BU2" s="7"/>
       <c r="BV2" s="8"/>
     </row>
-    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="BU3" s="10"/>
       <c r="BV3" s="11"/>
     </row>
-    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="BU4" s="10"/>
       <c r="BV4" s="11"/>
     </row>
-    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="BU5" s="10"/>
       <c r="BV5" s="29"/>
     </row>
-    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="BU6" s="10"/>
       <c r="BV6" s="29"/>
     </row>
-    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2868,7 +2868,7 @@
       <c r="BU7" s="10"/>
       <c r="BV7" s="11"/>
     </row>
-    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="BU8" s="10"/>
       <c r="BV8" s="11"/>
     </row>
-    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="BU9" s="10"/>
       <c r="BV9" s="11"/>
     </row>
-    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3102,13 +3102,12 @@
       <c r="BU10" s="10"/>
       <c r="BV10" s="11"/>
     </row>
-    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3180,20 +3179,19 @@
       <c r="BU11" s="10"/>
       <c r="BV11" s="11"/>
     </row>
-    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
@@ -3258,7 +3256,7 @@
       <c r="BU12" s="10"/>
       <c r="BV12" s="11"/>
     </row>
-    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3271,7 +3269,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -3336,7 +3334,7 @@
       <c r="BU13" s="10"/>
       <c r="BV13" s="11"/>
     </row>
-    <row r="14" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3414,7 +3412,7 @@
       <c r="BU14" s="10"/>
       <c r="BV14" s="11"/>
     </row>
-    <row r="15" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3492,7 +3490,7 @@
       <c r="BU15" s="10"/>
       <c r="BV15" s="11"/>
     </row>
-    <row r="16" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3570,7 +3568,7 @@
       <c r="BU16" s="10"/>
       <c r="BV16" s="11"/>
     </row>
-    <row r="17" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3648,7 +3646,7 @@
       <c r="BU17" s="10"/>
       <c r="BV17" s="11"/>
     </row>
-    <row r="18" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3726,7 +3724,7 @@
       <c r="BU18" s="10"/>
       <c r="BV18" s="11"/>
     </row>
-    <row r="19" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3804,7 +3802,7 @@
       <c r="BU19" s="10"/>
       <c r="BV19" s="11"/>
     </row>
-    <row r="20" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3882,7 +3880,7 @@
       <c r="BU20" s="10"/>
       <c r="BV20" s="11"/>
     </row>
-    <row r="21" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3960,7 +3958,7 @@
       <c r="BU21" s="10"/>
       <c r="BV21" s="11"/>
     </row>
-    <row r="22" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4038,7 +4036,7 @@
       <c r="BU22" s="10"/>
       <c r="BV22" s="11"/>
     </row>
-    <row r="23" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4116,7 +4114,7 @@
       <c r="BU23" s="10"/>
       <c r="BV23" s="11"/>
     </row>
-    <row r="24" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4194,7 +4192,7 @@
       <c r="BU24" s="10"/>
       <c r="BV24" s="11"/>
     </row>
-    <row r="25" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4272,7 +4270,7 @@
       <c r="BU25" s="10"/>
       <c r="BV25" s="11"/>
     </row>
-    <row r="26" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4350,7 +4348,7 @@
       <c r="BU26" s="10"/>
       <c r="BV26" s="11"/>
     </row>
-    <row r="27" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4428,7 +4426,7 @@
       <c r="BU27" s="10"/>
       <c r="BV27" s="11"/>
     </row>
-    <row r="28" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4506,7 +4504,7 @@
       <c r="BU28" s="10"/>
       <c r="BV28" s="11"/>
     </row>
-    <row r="29" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4584,7 +4582,7 @@
       <c r="BU29" s="10"/>
       <c r="BV29" s="11"/>
     </row>
-    <row r="30" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4662,7 +4660,7 @@
       <c r="BU30" s="10"/>
       <c r="BV30" s="11"/>
     </row>
-    <row r="31" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4740,7 +4738,7 @@
       <c r="BU31" s="10"/>
       <c r="BV31" s="11"/>
     </row>
-    <row r="32" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4818,7 +4816,7 @@
       <c r="BU32" s="10"/>
       <c r="BV32" s="11"/>
     </row>
-    <row r="33" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4896,7 +4894,7 @@
       <c r="BU33" s="10"/>
       <c r="BV33" s="11"/>
     </row>
-    <row r="34" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4974,7 +4972,7 @@
       <c r="BU34" s="10"/>
       <c r="BV34" s="11"/>
     </row>
-    <row r="35" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5052,7 +5050,7 @@
       <c r="BU35" s="10"/>
       <c r="BV35" s="11"/>
     </row>
-    <row r="36" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5130,7 +5128,7 @@
       <c r="BU36" s="10"/>
       <c r="BV36" s="11"/>
     </row>
-    <row r="37" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5208,7 +5206,7 @@
       <c r="BU37" s="10"/>
       <c r="BV37" s="11"/>
     </row>
-    <row r="38" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5286,7 +5284,7 @@
       <c r="BU38" s="10"/>
       <c r="BV38" s="11"/>
     </row>
-    <row r="39" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5364,7 +5362,7 @@
       <c r="BU39" s="10"/>
       <c r="BV39" s="11"/>
     </row>
-    <row r="40" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5442,7 +5440,7 @@
       <c r="BU40" s="10"/>
       <c r="BV40" s="11"/>
     </row>
-    <row r="41" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5520,7 +5518,7 @@
       <c r="BU41" s="10"/>
       <c r="BV41" s="11"/>
     </row>
-    <row r="42" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5598,7 +5596,7 @@
       <c r="BU42" s="10"/>
       <c r="BV42" s="11"/>
     </row>
-    <row r="43" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5676,7 +5674,7 @@
       <c r="BU43" s="10"/>
       <c r="BV43" s="11"/>
     </row>
-    <row r="44" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5754,7 +5752,7 @@
       <c r="BU44" s="10"/>
       <c r="BV44" s="11"/>
     </row>
-    <row r="45" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5832,7 +5830,7 @@
       <c r="BU45" s="10"/>
       <c r="BV45" s="11"/>
     </row>
-    <row r="46" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5910,7 +5908,7 @@
       <c r="BU46" s="10"/>
       <c r="BV46" s="11"/>
     </row>
-    <row r="47" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5988,7 +5986,7 @@
       <c r="BU47" s="10"/>
       <c r="BV47" s="11"/>
     </row>
-    <row r="48" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6066,7 +6064,7 @@
       <c r="BU48" s="10"/>
       <c r="BV48" s="11"/>
     </row>
-    <row r="49" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6144,7 +6142,7 @@
       <c r="BU49" s="10"/>
       <c r="BV49" s="11"/>
     </row>
-    <row r="50" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6222,7 +6220,7 @@
       <c r="BU50" s="10"/>
       <c r="BV50" s="11"/>
     </row>
-    <row r="51" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6300,7 +6298,7 @@
       <c r="BU51" s="10"/>
       <c r="BV51" s="11"/>
     </row>
-    <row r="52" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6378,7 +6376,7 @@
       <c r="BU52" s="10"/>
       <c r="BV52" s="11"/>
     </row>
-    <row r="53" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6456,7 +6454,7 @@
       <c r="BU53" s="10"/>
       <c r="BV53" s="11"/>
     </row>
-    <row r="54" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6534,7 +6532,7 @@
       <c r="BU54" s="10"/>
       <c r="BV54" s="11"/>
     </row>
-    <row r="55" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6612,7 +6610,7 @@
       <c r="BU55" s="10"/>
       <c r="BV55" s="11"/>
     </row>
-    <row r="56" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6690,7 +6688,7 @@
       <c r="BU56" s="10"/>
       <c r="BV56" s="11"/>
     </row>
-    <row r="57" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6768,7 +6766,7 @@
       <c r="BU57" s="10"/>
       <c r="BV57" s="11"/>
     </row>
-    <row r="58" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6846,7 +6844,7 @@
       <c r="BU58" s="10"/>
       <c r="BV58" s="11"/>
     </row>
-    <row r="59" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6924,7 +6922,7 @@
       <c r="BU59" s="10"/>
       <c r="BV59" s="11"/>
     </row>
-    <row r="60" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7002,7 +7000,7 @@
       <c r="BU60" s="10"/>
       <c r="BV60" s="11"/>
     </row>
-    <row r="61" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7080,7 +7078,7 @@
       <c r="BU61" s="10"/>
       <c r="BV61" s="11"/>
     </row>
-    <row r="62" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7158,7 +7156,7 @@
       <c r="BU62" s="10"/>
       <c r="BV62" s="11"/>
     </row>
-    <row r="63" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7236,7 +7234,7 @@
       <c r="BU63" s="10"/>
       <c r="BV63" s="11"/>
     </row>
-    <row r="64" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7314,7 +7312,7 @@
       <c r="BU64" s="10"/>
       <c r="BV64" s="11"/>
     </row>
-    <row r="65" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7392,7 +7390,7 @@
       <c r="BU65" s="10"/>
       <c r="BV65" s="11"/>
     </row>
-    <row r="66" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7470,7 +7468,7 @@
       <c r="BU66" s="10"/>
       <c r="BV66" s="11"/>
     </row>
-    <row r="67" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7548,7 +7546,7 @@
       <c r="BU67" s="10"/>
       <c r="BV67" s="11"/>
     </row>
-    <row r="68" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7626,7 +7624,7 @@
       <c r="BU68" s="10"/>
       <c r="BV68" s="11"/>
     </row>
-    <row r="69" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7704,7 +7702,7 @@
       <c r="BU69" s="10"/>
       <c r="BV69" s="11"/>
     </row>
-    <row r="70" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7782,7 +7780,7 @@
       <c r="BU70" s="10"/>
       <c r="BV70" s="11"/>
     </row>
-    <row r="71" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -7860,7 +7858,7 @@
       <c r="BU71" s="10"/>
       <c r="BV71" s="11"/>
     </row>
-    <row r="72" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -7938,7 +7936,7 @@
       <c r="BU72" s="10"/>
       <c r="BV72" s="11"/>
     </row>
-    <row r="73" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -8016,7 +8014,7 @@
       <c r="BU73" s="10"/>
       <c r="BV73" s="11"/>
     </row>
-    <row r="74" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -8094,7 +8092,7 @@
       <c r="BU74" s="10"/>
       <c r="BV74" s="11"/>
     </row>
-    <row r="75" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -8172,7 +8170,7 @@
       <c r="BU75" s="10"/>
       <c r="BV75" s="11"/>
     </row>
-    <row r="76" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -8250,7 +8248,7 @@
       <c r="BU76" s="10"/>
       <c r="BV76" s="11"/>
     </row>
-    <row r="77" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -8328,7 +8326,7 @@
       <c r="BU77" s="10"/>
       <c r="BV77" s="11"/>
     </row>
-    <row r="78" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -8406,7 +8404,7 @@
       <c r="BU78" s="10"/>
       <c r="BV78" s="11"/>
     </row>
-    <row r="79" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -8484,7 +8482,7 @@
       <c r="BU79" s="10"/>
       <c r="BV79" s="11"/>
     </row>
-    <row r="80" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -8562,7 +8560,7 @@
       <c r="BU80" s="10"/>
       <c r="BV80" s="11"/>
     </row>
-    <row r="81" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -8640,7 +8638,7 @@
       <c r="BU81" s="10"/>
       <c r="BV81" s="11"/>
     </row>
-    <row r="82" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -8718,7 +8716,7 @@
       <c r="BU82" s="10"/>
       <c r="BV82" s="11"/>
     </row>
-    <row r="83" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -8796,7 +8794,7 @@
       <c r="BU83" s="10"/>
       <c r="BV83" s="11"/>
     </row>
-    <row r="84" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -8874,7 +8872,7 @@
       <c r="BU84" s="10"/>
       <c r="BV84" s="11"/>
     </row>
-    <row r="85" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -8952,7 +8950,7 @@
       <c r="BU85" s="10"/>
       <c r="BV85" s="11"/>
     </row>
-    <row r="86" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -9030,7 +9028,7 @@
       <c r="BU86" s="10"/>
       <c r="BV86" s="11"/>
     </row>
-    <row r="87" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -9108,7 +9106,7 @@
       <c r="BU87" s="10"/>
       <c r="BV87" s="11"/>
     </row>
-    <row r="88" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -9186,7 +9184,7 @@
       <c r="BU88" s="10"/>
       <c r="BV88" s="11"/>
     </row>
-    <row r="89" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -9264,7 +9262,7 @@
       <c r="BU89" s="10"/>
       <c r="BV89" s="11"/>
     </row>
-    <row r="90" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -9342,7 +9340,7 @@
       <c r="BU90" s="10"/>
       <c r="BV90" s="11"/>
     </row>
-    <row r="91" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -9420,7 +9418,7 @@
       <c r="BU91" s="10"/>
       <c r="BV91" s="11"/>
     </row>
-    <row r="92" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -9498,7 +9496,7 @@
       <c r="BU92" s="10"/>
       <c r="BV92" s="11"/>
     </row>
-    <row r="93" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -9576,7 +9574,7 @@
       <c r="BU93" s="10"/>
       <c r="BV93" s="11"/>
     </row>
-    <row r="94" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -9654,7 +9652,7 @@
       <c r="BU94" s="10"/>
       <c r="BV94" s="11"/>
     </row>
-    <row r="95" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -9732,7 +9730,7 @@
       <c r="BU95" s="10"/>
       <c r="BV95" s="11"/>
     </row>
-    <row r="96" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -9810,7 +9808,7 @@
       <c r="BU96" s="10"/>
       <c r="BV96" s="11"/>
     </row>
-    <row r="97" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -9888,7 +9886,7 @@
       <c r="BU97" s="10"/>
       <c r="BV97" s="11"/>
     </row>
-    <row r="98" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -9966,7 +9964,7 @@
       <c r="BU98" s="10"/>
       <c r="BV98" s="11"/>
     </row>
-    <row r="99" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -10044,7 +10042,7 @@
       <c r="BU99" s="10"/>
       <c r="BV99" s="11"/>
     </row>
-    <row r="100" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10122,7 +10120,7 @@
       <c r="BU100" s="10"/>
       <c r="BV100" s="11"/>
     </row>
-    <row r="101" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10200,7 +10198,7 @@
       <c r="BU101" s="10"/>
       <c r="BV101" s="11"/>
     </row>
-    <row r="102" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -10278,7 +10276,7 @@
       <c r="BU102" s="10"/>
       <c r="BV102" s="11"/>
     </row>
-    <row r="103" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -10356,7 +10354,7 @@
       <c r="BU103" s="10"/>
       <c r="BV103" s="11"/>
     </row>
-    <row r="104" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -10434,7 +10432,7 @@
       <c r="BU104" s="24"/>
       <c r="BV104" s="11"/>
     </row>
-    <row r="105" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -10512,7 +10510,7 @@
       <c r="BU105" s="13"/>
       <c r="BV105" s="27"/>
     </row>
-    <row r="106" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
+++ b/ITER1/ARTEFACTOS/ARTEFACTO 7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\REPOSITORIOSGIT\SW\ITER1\ARTEFACTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive\UNIVERSIDAD\TERCER CURSO\INGENIERIA DEL SOFTWARE AVANZADA\LABORATORIO\SW\ITER1\ARTEFACTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7B63F595-5510-401D-9DC7-045A3B18150B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="6_{C3531600-0594-4BA6-B807-231BA8DD42C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{4DE66BCA-1996-4DCC-B95E-AE17BE922C0D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{D68F269D-CCB5-4930-8DCD-09FEBB86FD79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTEFACTO7.1" sheetId="2" r:id="rId1"/>
@@ -312,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -581,11 +581,20 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,6 +681,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,13 +1006,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="2"/>
-    <col min="2" max="16384" width="11.44140625" style="3"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1222,7 +1234,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -1300,7 +1312,7 @@
       <c r="BU2" s="15"/>
       <c r="BV2" s="16"/>
     </row>
-    <row r="3" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1390,7 @@
       <c r="BU3" s="18"/>
       <c r="BV3" s="19"/>
     </row>
-    <row r="4" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -1456,7 +1468,7 @@
       <c r="BU4" s="18"/>
       <c r="BV4" s="19"/>
     </row>
-    <row r="5" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -1534,7 +1546,7 @@
       <c r="BU5" s="18"/>
       <c r="BV5" s="19"/>
     </row>
-    <row r="6" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -1612,7 +1624,7 @@
       <c r="BU6" s="18"/>
       <c r="BV6" s="19"/>
     </row>
-    <row r="7" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="BU7" s="18"/>
       <c r="BV7" s="19"/>
     </row>
-    <row r="8" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1780,7 @@
       <c r="BU8" s="18"/>
       <c r="BV8" s="19"/>
     </row>
-    <row r="9" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1858,7 @@
       <c r="BU9" s="18"/>
       <c r="BV9" s="19"/>
     </row>
-    <row r="10" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -1924,7 +1936,7 @@
       <c r="BU10" s="18"/>
       <c r="BV10" s="19"/>
     </row>
-    <row r="11" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
@@ -2002,7 +2014,7 @@
       <c r="BU11" s="18"/>
       <c r="BV11" s="19"/>
     </row>
-    <row r="12" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -2080,7 +2092,7 @@
       <c r="BU12" s="18"/>
       <c r="BV12" s="19"/>
     </row>
-    <row r="13" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>84</v>
       </c>
@@ -2158,7 +2170,7 @@
       <c r="BU13" s="21"/>
       <c r="BV13" s="22"/>
     </row>
-    <row r="14" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2166,19 +2178,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F115FB-91EA-4D3D-AC52-FEB512D0E00D}">
-  <dimension ref="A1:BV106"/>
+  <dimension ref="A1:BV105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI51" sqref="AI51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="5"/>
-    <col min="2" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="5" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="5" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2400,7 +2412,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2478,7 +2490,7 @@
       <c r="BU2" s="7"/>
       <c r="BV2" s="8"/>
     </row>
-    <row r="3" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2556,7 +2568,7 @@
       <c r="BU3" s="10"/>
       <c r="BV3" s="11"/>
     </row>
-    <row r="4" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2634,7 +2646,7 @@
       <c r="BU4" s="10"/>
       <c r="BV4" s="11"/>
     </row>
-    <row r="5" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2712,7 +2724,7 @@
       <c r="BU5" s="10"/>
       <c r="BV5" s="29"/>
     </row>
-    <row r="6" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2790,7 +2802,7 @@
       <c r="BU6" s="10"/>
       <c r="BV6" s="29"/>
     </row>
-    <row r="7" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2868,7 +2880,7 @@
       <c r="BU7" s="10"/>
       <c r="BV7" s="11"/>
     </row>
-    <row r="8" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2946,7 +2958,7 @@
       <c r="BU8" s="10"/>
       <c r="BV8" s="11"/>
     </row>
-    <row r="9" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3024,7 +3036,7 @@
       <c r="BU9" s="10"/>
       <c r="BV9" s="11"/>
     </row>
-    <row r="10" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3102,7 +3114,7 @@
       <c r="BU10" s="10"/>
       <c r="BV10" s="11"/>
     </row>
-    <row r="11" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3179,7 +3191,7 @@
       <c r="BU11" s="10"/>
       <c r="BV11" s="11"/>
     </row>
-    <row r="12" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3256,7 +3268,7 @@
       <c r="BU12" s="10"/>
       <c r="BV12" s="11"/>
     </row>
-    <row r="13" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3334,7 +3346,7 @@
       <c r="BU13" s="10"/>
       <c r="BV13" s="11"/>
     </row>
-    <row r="14" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3412,7 +3424,7 @@
       <c r="BU14" s="10"/>
       <c r="BV14" s="11"/>
     </row>
-    <row r="15" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3490,7 +3502,7 @@
       <c r="BU15" s="10"/>
       <c r="BV15" s="11"/>
     </row>
-    <row r="16" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3568,7 +3580,7 @@
       <c r="BU16" s="10"/>
       <c r="BV16" s="11"/>
     </row>
-    <row r="17" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3646,7 +3658,7 @@
       <c r="BU17" s="10"/>
       <c r="BV17" s="11"/>
     </row>
-    <row r="18" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3724,7 +3736,7 @@
       <c r="BU18" s="10"/>
       <c r="BV18" s="11"/>
     </row>
-    <row r="19" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3802,7 +3814,7 @@
       <c r="BU19" s="10"/>
       <c r="BV19" s="11"/>
     </row>
-    <row r="20" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3814,18 +3826,18 @@
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
@@ -3840,8 +3852,8 @@
       <c r="AG20" s="10"/>
       <c r="AH20" s="10"/>
       <c r="AI20" s="10"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
       <c r="AL20" s="10"/>
       <c r="AM20" s="10"/>
       <c r="AN20" s="10"/>
@@ -3880,7 +3892,7 @@
       <c r="BU20" s="10"/>
       <c r="BV20" s="11"/>
     </row>
-    <row r="21" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3892,18 +3904,18 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
       <c r="X21" s="10"/>
@@ -3918,8 +3930,8 @@
       <c r="AG21" s="10"/>
       <c r="AH21" s="10"/>
       <c r="AI21" s="10"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
       <c r="AL21" s="10"/>
       <c r="AM21" s="10"/>
       <c r="AN21" s="10"/>
@@ -3958,7 +3970,7 @@
       <c r="BU21" s="10"/>
       <c r="BV21" s="11"/>
     </row>
-    <row r="22" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4036,7 +4048,7 @@
       <c r="BU22" s="10"/>
       <c r="BV22" s="11"/>
     </row>
-    <row r="23" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4114,7 +4126,7 @@
       <c r="BU23" s="10"/>
       <c r="BV23" s="11"/>
     </row>
-    <row r="24" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4192,7 +4204,7 @@
       <c r="BU24" s="10"/>
       <c r="BV24" s="11"/>
     </row>
-    <row r="25" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4270,7 +4282,7 @@
       <c r="BU25" s="10"/>
       <c r="BV25" s="11"/>
     </row>
-    <row r="26" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4348,7 +4360,7 @@
       <c r="BU26" s="10"/>
       <c r="BV26" s="11"/>
     </row>
-    <row r="27" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4426,7 +4438,7 @@
       <c r="BU27" s="10"/>
       <c r="BV27" s="11"/>
     </row>
-    <row r="28" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4504,7 +4516,7 @@
       <c r="BU28" s="10"/>
       <c r="BV28" s="11"/>
     </row>
-    <row r="29" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4582,7 +4594,7 @@
       <c r="BU29" s="10"/>
       <c r="BV29" s="11"/>
     </row>
-    <row r="30" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4594,7 +4606,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
@@ -4610,7 +4622,7 @@
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
+      <c r="Z30" s="24"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -4660,7 +4672,7 @@
       <c r="BU30" s="10"/>
       <c r="BV30" s="11"/>
     </row>
-    <row r="31" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4672,7 +4684,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
@@ -4688,7 +4700,7 @@
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
+      <c r="Z31" s="24"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -4738,7 +4750,7 @@
       <c r="BU31" s="10"/>
       <c r="BV31" s="11"/>
     </row>
-    <row r="32" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4816,7 +4828,7 @@
       <c r="BU32" s="10"/>
       <c r="BV32" s="11"/>
     </row>
-    <row r="33" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4894,7 +4906,7 @@
       <c r="BU33" s="10"/>
       <c r="BV33" s="11"/>
     </row>
-    <row r="34" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4972,7 +4984,7 @@
       <c r="BU34" s="10"/>
       <c r="BV34" s="11"/>
     </row>
-    <row r="35" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4980,10 +4992,10 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -5000,7 +5012,7 @@
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
-      <c r="Z35" s="24"/>
+      <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
@@ -5050,7 +5062,7 @@
       <c r="BU35" s="10"/>
       <c r="BV35" s="11"/>
     </row>
-    <row r="36" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -5059,9 +5071,9 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -5078,7 +5090,7 @@
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
-      <c r="Z36" s="24"/>
+      <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
       <c r="AC36" s="10"/>
@@ -5128,7 +5140,7 @@
       <c r="BU36" s="10"/>
       <c r="BV36" s="11"/>
     </row>
-    <row r="37" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -5136,7 +5148,7 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="26"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5206,7 +5218,7 @@
       <c r="BU37" s="10"/>
       <c r="BV37" s="11"/>
     </row>
-    <row r="38" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5284,7 +5296,7 @@
       <c r="BU38" s="10"/>
       <c r="BV38" s="11"/>
     </row>
-    <row r="39" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -5294,8 +5306,8 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -5362,7 +5374,7 @@
       <c r="BU39" s="10"/>
       <c r="BV39" s="11"/>
     </row>
-    <row r="40" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -5373,7 +5385,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -5440,7 +5452,7 @@
       <c r="BU40" s="10"/>
       <c r="BV40" s="11"/>
     </row>
-    <row r="41" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -5450,7 +5462,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="24"/>
-      <c r="H41" s="10"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
@@ -5518,7 +5530,7 @@
       <c r="BU41" s="10"/>
       <c r="BV41" s="11"/>
     </row>
-    <row r="42" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -5527,10 +5539,10 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="G42" s="10"/>
+      <c r="H42"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -5596,7 +5608,7 @@
       <c r="BU42" s="10"/>
       <c r="BV42" s="11"/>
     </row>
-    <row r="43" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -5605,12 +5617,12 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -5628,12 +5640,12 @@
       <c r="AA43" s="10"/>
       <c r="AB43" s="10"/>
       <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
       <c r="AF43" s="10"/>
       <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="24"/>
       <c r="AJ43" s="10"/>
       <c r="AK43" s="10"/>
       <c r="AL43" s="10"/>
@@ -5674,7 +5686,7 @@
       <c r="BU43" s="10"/>
       <c r="BV43" s="11"/>
     </row>
-    <row r="44" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -5684,11 +5696,11 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="10"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -5706,12 +5718,12 @@
       <c r="AA44" s="10"/>
       <c r="AB44" s="10"/>
       <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
       <c r="AF44" s="10"/>
       <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="24"/>
       <c r="AJ44" s="10"/>
       <c r="AK44" s="10"/>
       <c r="AL44" s="10"/>
@@ -5752,7 +5764,7 @@
       <c r="BU44" s="10"/>
       <c r="BV44" s="11"/>
     </row>
-    <row r="45" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -5767,7 +5779,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="24"/>
       <c r="L45" s="24"/>
-      <c r="M45" s="10"/>
+      <c r="M45" s="24"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
@@ -5784,12 +5796,12 @@
       <c r="AA45" s="10"/>
       <c r="AB45" s="10"/>
       <c r="AC45" s="10"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
+      <c r="AD45" s="10"/>
+      <c r="AE45" s="10"/>
       <c r="AF45" s="10"/>
       <c r="AG45" s="10"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
       <c r="AK45" s="10"/>
       <c r="AL45" s="10"/>
@@ -5830,7 +5842,7 @@
       <c r="BU45" s="10"/>
       <c r="BV45" s="11"/>
     </row>
-    <row r="46" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -5846,7 +5858,7 @@
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="N46" s="24"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
@@ -5862,12 +5874,12 @@
       <c r="AA46" s="10"/>
       <c r="AB46" s="10"/>
       <c r="AC46" s="10"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
+      <c r="AD46" s="10"/>
+      <c r="AE46" s="10"/>
       <c r="AF46" s="10"/>
       <c r="AG46" s="10"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
+      <c r="AH46" s="10"/>
+      <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
@@ -5908,7 +5920,7 @@
       <c r="BU46" s="10"/>
       <c r="BV46" s="11"/>
     </row>
-    <row r="47" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -5921,9 +5933,9 @@
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -5938,12 +5950,12 @@
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47"/>
       <c r="AD47" s="10"/>
       <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47"/>
       <c r="AH47" s="10"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10"/>
@@ -5986,7 +5998,7 @@
       <c r="BU47" s="10"/>
       <c r="BV47" s="11"/>
     </row>
-    <row r="48" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -5999,10 +6011,10 @@
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="24"/>
+      <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
@@ -6017,11 +6029,10 @@
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
       <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
+      <c r="AC48" s="24"/>
       <c r="AD48" s="10"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="10"/>
-      <c r="AG48" s="10"/>
       <c r="AH48" s="10"/>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10"/>
@@ -6064,85 +6075,13 @@
       <c r="BU48" s="10"/>
       <c r="BV48" s="11"/>
     </row>
-    <row r="49" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
-      <c r="AK49" s="10"/>
-      <c r="AL49" s="10"/>
-      <c r="AM49" s="10"/>
-      <c r="AN49" s="10"/>
-      <c r="AO49" s="10"/>
-      <c r="AP49" s="10"/>
-      <c r="AQ49" s="10"/>
-      <c r="AR49" s="10"/>
-      <c r="AS49" s="10"/>
-      <c r="AT49" s="10"/>
-      <c r="AU49" s="10"/>
-      <c r="AV49" s="10"/>
-      <c r="AW49" s="10"/>
-      <c r="AX49" s="10"/>
-      <c r="AY49" s="10"/>
-      <c r="AZ49" s="10"/>
-      <c r="BA49" s="10"/>
-      <c r="BB49" s="10"/>
-      <c r="BC49" s="10"/>
-      <c r="BD49" s="10"/>
-      <c r="BE49" s="10"/>
-      <c r="BF49" s="10"/>
-      <c r="BG49" s="10"/>
-      <c r="BH49" s="10"/>
-      <c r="BI49" s="10"/>
-      <c r="BJ49" s="10"/>
-      <c r="BK49" s="10"/>
-      <c r="BL49" s="10"/>
-      <c r="BM49" s="10"/>
-      <c r="BN49" s="10"/>
-      <c r="BO49" s="10"/>
-      <c r="BP49" s="10"/>
-      <c r="BQ49" s="10"/>
-      <c r="BR49" s="10"/>
-      <c r="BS49" s="10"/>
-      <c r="BT49" s="10"/>
-      <c r="BU49" s="10"/>
-      <c r="BV49" s="11"/>
-    </row>
-    <row r="50" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG49" s="24"/>
+    </row>
+    <row r="50" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6155,8 +6094,8 @@
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -6172,12 +6111,12 @@
       <c r="Y50" s="10"/>
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50"/>
       <c r="AD50" s="10"/>
       <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50"/>
       <c r="AH50" s="10"/>
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10"/>
@@ -6220,7 +6159,7 @@
       <c r="BU50" s="10"/>
       <c r="BV50" s="11"/>
     </row>
-    <row r="51" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -6250,12 +6189,12 @@
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="24"/>
       <c r="AD51" s="10"/>
       <c r="AE51" s="10"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="24"/>
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
       <c r="AJ51" s="10"/>
@@ -6298,7 +6237,7 @@
       <c r="BU51" s="10"/>
       <c r="BV51" s="11"/>
     </row>
-    <row r="52" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -6311,11 +6250,11 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="O52" s="24"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -6327,13 +6266,13 @@
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="24"/>
       <c r="AB52" s="10"/>
-      <c r="AC52" s="24"/>
+      <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
       <c r="AE52" s="10"/>
       <c r="AF52" s="10"/>
-      <c r="AG52" s="24"/>
+      <c r="AG52" s="10"/>
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
@@ -6376,7 +6315,7 @@
       <c r="BU52" s="10"/>
       <c r="BV52" s="11"/>
     </row>
-    <row r="53" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -6393,8 +6332,8 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="24"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
@@ -6404,8 +6343,8 @@
       <c r="W53" s="10"/>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
@@ -6454,7 +6393,7 @@
       <c r="BU53" s="10"/>
       <c r="BV53" s="11"/>
     </row>
-    <row r="54" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6471,9 +6410,9 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
+      <c r="O54"/>
       <c r="P54" s="24"/>
-      <c r="Q54" s="10"/>
+      <c r="Q54" s="24"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
@@ -6482,8 +6421,8 @@
       <c r="W54" s="10"/>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
@@ -6532,7 +6471,7 @@
       <c r="BU54" s="10"/>
       <c r="BV54" s="11"/>
     </row>
-    <row r="55" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6550,8 +6489,8 @@
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
       <c r="O55"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -6560,7 +6499,7 @@
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
+      <c r="Z55" s="24"/>
       <c r="AA55"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
@@ -6610,7 +6549,7 @@
       <c r="BU55" s="10"/>
       <c r="BV55" s="11"/>
     </row>
-    <row r="56" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -6623,11 +6562,11 @@
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
+      <c r="K56"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
-      <c r="O56"/>
+      <c r="O56" s="24"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
@@ -6638,8 +6577,8 @@
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="24"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -6688,7 +6627,7 @@
       <c r="BU56" s="10"/>
       <c r="BV56" s="11"/>
     </row>
-    <row r="57" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -6702,7 +6641,7 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57"/>
-      <c r="L57" s="10"/>
+      <c r="L57"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="24"/>
@@ -6766,7 +6705,7 @@
       <c r="BU57" s="10"/>
       <c r="BV57" s="11"/>
     </row>
-    <row r="58" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -6779,14 +6718,14 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
-      <c r="K58"/>
-      <c r="L58"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
-      <c r="O58" s="24"/>
+      <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
+      <c r="R58"/>
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10"/>
@@ -6844,7 +6783,7 @@
       <c r="BU58" s="10"/>
       <c r="BV58" s="11"/>
     </row>
-    <row r="59" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -6861,11 +6800,11 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
+      <c r="O59" s="24"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
-      <c r="R59"/>
-      <c r="S59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
@@ -6922,7 +6861,7 @@
       <c r="BU59" s="10"/>
       <c r="BV59" s="11"/>
     </row>
-    <row r="60" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -6935,23 +6874,23 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="24"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
-      <c r="O60" s="24"/>
+      <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60"/>
-      <c r="T60" s="10"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="10"/>
+      <c r="T60"/>
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
-      <c r="AA60" s="24"/>
+      <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
@@ -7000,7 +6939,7 @@
       <c r="BU60" s="10"/>
       <c r="BV60" s="11"/>
     </row>
-    <row r="61" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7014,15 +6953,15 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
-      <c r="L61" s="24"/>
+      <c r="L61" s="10"/>
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="10"/>
-      <c r="T61"/>
+      <c r="R61"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
@@ -7078,7 +7017,7 @@
       <c r="BU61" s="10"/>
       <c r="BV61" s="11"/>
     </row>
-    <row r="62" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7098,9 +7037,9 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
-      <c r="R62"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62"/>
+      <c r="T62" s="24"/>
       <c r="U62" s="10"/>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
@@ -7156,7 +7095,7 @@
       <c r="BU62" s="10"/>
       <c r="BV62" s="11"/>
     </row>
-    <row r="63" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7176,9 +7115,9 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63"/>
-      <c r="T63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="10"/>
+      <c r="T63"/>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
@@ -7234,7 +7173,7 @@
       <c r="BU63" s="10"/>
       <c r="BV63" s="11"/>
     </row>
-    <row r="64" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7254,9 +7193,9 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="10"/>
-      <c r="T64"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
@@ -7312,7 +7251,7 @@
       <c r="BU64" s="10"/>
       <c r="BV64" s="11"/>
     </row>
-    <row r="65" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7333,8 +7272,8 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="24"/>
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
@@ -7390,7 +7329,7 @@
       <c r="BU65" s="10"/>
       <c r="BV65" s="11"/>
     </row>
-    <row r="66" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7412,7 +7351,7 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
-      <c r="T66" s="24"/>
+      <c r="T66" s="10"/>
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
@@ -7430,7 +7369,7 @@
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10"/>
       <c r="AK66" s="10"/>
-      <c r="AL66" s="10"/>
+      <c r="AL66" s="24"/>
       <c r="AM66" s="10"/>
       <c r="AN66" s="10"/>
       <c r="AO66" s="10"/>
@@ -7468,7 +7407,7 @@
       <c r="BU66" s="10"/>
       <c r="BV66" s="11"/>
     </row>
-    <row r="67" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7508,8 +7447,8 @@
       <c r="AI67" s="10"/>
       <c r="AJ67" s="10"/>
       <c r="AK67" s="10"/>
-      <c r="AL67" s="24"/>
-      <c r="AM67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="24"/>
       <c r="AN67" s="10"/>
       <c r="AO67" s="10"/>
       <c r="AP67" s="10"/>
@@ -7546,7 +7485,7 @@
       <c r="BU67" s="10"/>
       <c r="BV67" s="11"/>
     </row>
-    <row r="68" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7624,7 +7563,7 @@
       <c r="BU68" s="10"/>
       <c r="BV68" s="11"/>
     </row>
-    <row r="69" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7665,8 +7604,8 @@
       <c r="AJ69" s="10"/>
       <c r="AK69" s="10"/>
       <c r="AL69" s="10"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="24"/>
       <c r="AO69" s="10"/>
       <c r="AP69" s="10"/>
       <c r="AQ69" s="10"/>
@@ -7702,7 +7641,7 @@
       <c r="BU69" s="10"/>
       <c r="BV69" s="11"/>
     </row>
-    <row r="70" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7744,8 +7683,8 @@
       <c r="AK70" s="10"/>
       <c r="AL70" s="10"/>
       <c r="AM70" s="10"/>
-      <c r="AN70" s="24"/>
-      <c r="AO70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="24"/>
       <c r="AP70" s="10"/>
       <c r="AQ70" s="10"/>
       <c r="AR70" s="10"/>
@@ -7780,7 +7719,7 @@
       <c r="BU70" s="10"/>
       <c r="BV70" s="11"/>
     </row>
-    <row r="71" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -7858,7 +7797,7 @@
       <c r="BU71" s="10"/>
       <c r="BV71" s="11"/>
     </row>
-    <row r="72" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -7901,8 +7840,8 @@
       <c r="AL72" s="10"/>
       <c r="AM72" s="10"/>
       <c r="AN72" s="10"/>
-      <c r="AO72" s="24"/>
-      <c r="AP72" s="10"/>
+      <c r="AO72" s="10"/>
+      <c r="AP72" s="24"/>
       <c r="AQ72" s="10"/>
       <c r="AR72" s="10"/>
       <c r="AS72" s="10"/>
@@ -7936,7 +7875,7 @@
       <c r="BU72" s="10"/>
       <c r="BV72" s="11"/>
     </row>
-    <row r="73" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -7980,8 +7919,8 @@
       <c r="AM73" s="10"/>
       <c r="AN73" s="10"/>
       <c r="AO73" s="10"/>
-      <c r="AP73" s="24"/>
-      <c r="AQ73" s="10"/>
+      <c r="AP73" s="10"/>
+      <c r="AQ73" s="24"/>
       <c r="AR73" s="10"/>
       <c r="AS73" s="10"/>
       <c r="AT73" s="10"/>
@@ -8014,7 +7953,7 @@
       <c r="BU73" s="10"/>
       <c r="BV73" s="11"/>
     </row>
-    <row r="74" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -8059,8 +7998,8 @@
       <c r="AN74" s="10"/>
       <c r="AO74" s="10"/>
       <c r="AP74" s="10"/>
-      <c r="AQ74" s="24"/>
-      <c r="AR74" s="10"/>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="24"/>
       <c r="AS74" s="10"/>
       <c r="AT74" s="10"/>
       <c r="AU74" s="10"/>
@@ -8092,7 +8031,7 @@
       <c r="BU74" s="10"/>
       <c r="BV74" s="11"/>
     </row>
-    <row r="75" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -8138,8 +8077,8 @@
       <c r="AO75" s="10"/>
       <c r="AP75" s="10"/>
       <c r="AQ75" s="10"/>
-      <c r="AR75" s="24"/>
-      <c r="AS75" s="10"/>
+      <c r="AR75" s="10"/>
+      <c r="AS75" s="24"/>
       <c r="AT75" s="10"/>
       <c r="AU75" s="10"/>
       <c r="AV75" s="10"/>
@@ -8170,7 +8109,7 @@
       <c r="BU75" s="10"/>
       <c r="BV75" s="11"/>
     </row>
-    <row r="76" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -8217,8 +8156,8 @@
       <c r="AP76" s="10"/>
       <c r="AQ76" s="10"/>
       <c r="AR76" s="10"/>
-      <c r="AS76" s="24"/>
-      <c r="AT76" s="10"/>
+      <c r="AS76" s="10"/>
+      <c r="AT76" s="24"/>
       <c r="AU76" s="10"/>
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
@@ -8248,7 +8187,7 @@
       <c r="BU76" s="10"/>
       <c r="BV76" s="11"/>
     </row>
-    <row r="77" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -8296,8 +8235,8 @@
       <c r="AQ77" s="10"/>
       <c r="AR77" s="10"/>
       <c r="AS77" s="10"/>
-      <c r="AT77" s="24"/>
-      <c r="AU77" s="10"/>
+      <c r="AT77" s="10"/>
+      <c r="AU77" s="24"/>
       <c r="AV77" s="10"/>
       <c r="AW77" s="10"/>
       <c r="AX77" s="10"/>
@@ -8326,7 +8265,7 @@
       <c r="BU77" s="10"/>
       <c r="BV77" s="11"/>
     </row>
-    <row r="78" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -8375,8 +8314,8 @@
       <c r="AR78" s="10"/>
       <c r="AS78" s="10"/>
       <c r="AT78" s="10"/>
-      <c r="AU78" s="24"/>
-      <c r="AV78" s="10"/>
+      <c r="AU78" s="10"/>
+      <c r="AV78" s="24"/>
       <c r="AW78" s="10"/>
       <c r="AX78" s="10"/>
       <c r="AY78" s="10"/>
@@ -8404,7 +8343,7 @@
       <c r="BU78" s="10"/>
       <c r="BV78" s="11"/>
     </row>
-    <row r="79" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -8454,8 +8393,8 @@
       <c r="AS79" s="10"/>
       <c r="AT79" s="10"/>
       <c r="AU79" s="10"/>
-      <c r="AV79" s="24"/>
-      <c r="AW79" s="10"/>
+      <c r="AV79" s="10"/>
+      <c r="AW79" s="24"/>
       <c r="AX79" s="10"/>
       <c r="AY79" s="10"/>
       <c r="AZ79" s="10"/>
@@ -8482,7 +8421,7 @@
       <c r="BU79" s="10"/>
       <c r="BV79" s="11"/>
     </row>
-    <row r="80" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -8533,8 +8472,8 @@
       <c r="AT80" s="10"/>
       <c r="AU80" s="10"/>
       <c r="AV80" s="10"/>
-      <c r="AW80" s="24"/>
-      <c r="AX80" s="10"/>
+      <c r="AW80" s="10"/>
+      <c r="AX80" s="24"/>
       <c r="AY80" s="10"/>
       <c r="AZ80" s="10"/>
       <c r="BA80" s="10"/>
@@ -8560,7 +8499,7 @@
       <c r="BU80" s="10"/>
       <c r="BV80" s="11"/>
     </row>
-    <row r="81" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -8612,8 +8551,8 @@
       <c r="AU81" s="10"/>
       <c r="AV81" s="10"/>
       <c r="AW81" s="10"/>
-      <c r="AX81" s="24"/>
-      <c r="AY81" s="10"/>
+      <c r="AX81" s="10"/>
+      <c r="AY81" s="24"/>
       <c r="AZ81" s="10"/>
       <c r="BA81" s="10"/>
       <c r="BB81" s="10"/>
@@ -8638,7 +8577,7 @@
       <c r="BU81" s="10"/>
       <c r="BV81" s="11"/>
     </row>
-    <row r="82" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -8691,8 +8630,8 @@
       <c r="AV82" s="10"/>
       <c r="AW82" s="10"/>
       <c r="AX82" s="10"/>
-      <c r="AY82" s="24"/>
-      <c r="AZ82" s="10"/>
+      <c r="AY82" s="10"/>
+      <c r="AZ82" s="24"/>
       <c r="BA82" s="10"/>
       <c r="BB82" s="10"/>
       <c r="BC82" s="10"/>
@@ -8716,7 +8655,7 @@
       <c r="BU82" s="10"/>
       <c r="BV82" s="11"/>
     </row>
-    <row r="83" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -8770,8 +8709,8 @@
       <c r="AW83" s="10"/>
       <c r="AX83" s="10"/>
       <c r="AY83" s="10"/>
-      <c r="AZ83" s="24"/>
-      <c r="BA83" s="10"/>
+      <c r="AZ83" s="10"/>
+      <c r="BA83" s="24"/>
       <c r="BB83" s="10"/>
       <c r="BC83" s="10"/>
       <c r="BD83" s="10"/>
@@ -8794,7 +8733,7 @@
       <c r="BU83" s="10"/>
       <c r="BV83" s="11"/>
     </row>
-    <row r="84" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -8849,8 +8788,8 @@
       <c r="AX84" s="10"/>
       <c r="AY84" s="10"/>
       <c r="AZ84" s="10"/>
-      <c r="BA84" s="24"/>
-      <c r="BB84" s="10"/>
+      <c r="BA84" s="10"/>
+      <c r="BB84" s="24"/>
       <c r="BC84" s="10"/>
       <c r="BD84" s="10"/>
       <c r="BE84" s="10"/>
@@ -8872,7 +8811,7 @@
       <c r="BU84" s="10"/>
       <c r="BV84" s="11"/>
     </row>
-    <row r="85" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -8928,8 +8867,8 @@
       <c r="AY85" s="10"/>
       <c r="AZ85" s="10"/>
       <c r="BA85" s="10"/>
-      <c r="BB85" s="24"/>
-      <c r="BC85" s="10"/>
+      <c r="BB85" s="10"/>
+      <c r="BC85" s="24"/>
       <c r="BD85" s="10"/>
       <c r="BE85" s="10"/>
       <c r="BF85" s="10"/>
@@ -8950,7 +8889,7 @@
       <c r="BU85" s="10"/>
       <c r="BV85" s="11"/>
     </row>
-    <row r="86" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -9007,8 +8946,8 @@
       <c r="AZ86" s="10"/>
       <c r="BA86" s="10"/>
       <c r="BB86" s="10"/>
-      <c r="BC86" s="24"/>
-      <c r="BD86" s="10"/>
+      <c r="BC86" s="10"/>
+      <c r="BD86" s="24"/>
       <c r="BE86" s="10"/>
       <c r="BF86" s="10"/>
       <c r="BG86" s="10"/>
@@ -9028,7 +8967,7 @@
       <c r="BU86" s="10"/>
       <c r="BV86" s="11"/>
     </row>
-    <row r="87" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -9086,8 +9025,8 @@
       <c r="BA87" s="10"/>
       <c r="BB87" s="10"/>
       <c r="BC87" s="10"/>
-      <c r="BD87" s="24"/>
-      <c r="BE87" s="10"/>
+      <c r="BD87" s="10"/>
+      <c r="BE87" s="24"/>
       <c r="BF87" s="10"/>
       <c r="BG87" s="10"/>
       <c r="BH87" s="10"/>
@@ -9106,7 +9045,7 @@
       <c r="BU87" s="10"/>
       <c r="BV87" s="11"/>
     </row>
-    <row r="88" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -9165,8 +9104,8 @@
       <c r="BB88" s="10"/>
       <c r="BC88" s="10"/>
       <c r="BD88" s="10"/>
-      <c r="BE88" s="24"/>
-      <c r="BF88" s="10"/>
+      <c r="BE88" s="10"/>
+      <c r="BF88" s="24"/>
       <c r="BG88" s="10"/>
       <c r="BH88" s="10"/>
       <c r="BI88" s="10"/>
@@ -9184,7 +9123,7 @@
       <c r="BU88" s="10"/>
       <c r="BV88" s="11"/>
     </row>
-    <row r="89" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -9244,8 +9183,8 @@
       <c r="BC89" s="10"/>
       <c r="BD89" s="10"/>
       <c r="BE89" s="10"/>
-      <c r="BF89" s="24"/>
-      <c r="BG89" s="10"/>
+      <c r="BF89" s="10"/>
+      <c r="BG89" s="24"/>
       <c r="BH89" s="10"/>
       <c r="BI89" s="10"/>
       <c r="BJ89" s="10"/>
@@ -9262,7 +9201,7 @@
       <c r="BU89" s="10"/>
       <c r="BV89" s="11"/>
     </row>
-    <row r="90" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -9323,8 +9262,8 @@
       <c r="BD90" s="10"/>
       <c r="BE90" s="10"/>
       <c r="BF90" s="10"/>
-      <c r="BG90" s="24"/>
-      <c r="BH90" s="10"/>
+      <c r="BG90" s="10"/>
+      <c r="BH90" s="24"/>
       <c r="BI90" s="10"/>
       <c r="BJ90" s="10"/>
       <c r="BK90" s="10"/>
@@ -9340,7 +9279,7 @@
       <c r="BU90" s="10"/>
       <c r="BV90" s="11"/>
     </row>
-    <row r="91" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -9402,8 +9341,8 @@
       <c r="BE91" s="10"/>
       <c r="BF91" s="10"/>
       <c r="BG91" s="10"/>
-      <c r="BH91" s="24"/>
-      <c r="BI91" s="10"/>
+      <c r="BH91" s="10"/>
+      <c r="BI91" s="24"/>
       <c r="BJ91" s="10"/>
       <c r="BK91" s="10"/>
       <c r="BL91" s="10"/>
@@ -9418,7 +9357,7 @@
       <c r="BU91" s="10"/>
       <c r="BV91" s="11"/>
     </row>
-    <row r="92" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -9481,8 +9420,8 @@
       <c r="BF92" s="10"/>
       <c r="BG92" s="10"/>
       <c r="BH92" s="10"/>
-      <c r="BI92" s="24"/>
-      <c r="BJ92" s="10"/>
+      <c r="BI92" s="10"/>
+      <c r="BJ92" s="24"/>
       <c r="BK92" s="10"/>
       <c r="BL92" s="10"/>
       <c r="BM92" s="10"/>
@@ -9496,7 +9435,7 @@
       <c r="BU92" s="10"/>
       <c r="BV92" s="11"/>
     </row>
-    <row r="93" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -9560,8 +9499,8 @@
       <c r="BG93" s="10"/>
       <c r="BH93" s="10"/>
       <c r="BI93" s="10"/>
-      <c r="BJ93" s="24"/>
-      <c r="BK93" s="10"/>
+      <c r="BJ93" s="10"/>
+      <c r="BK93" s="24"/>
       <c r="BL93" s="10"/>
       <c r="BM93" s="10"/>
       <c r="BN93" s="10"/>
@@ -9574,7 +9513,7 @@
       <c r="BU93" s="10"/>
       <c r="BV93" s="11"/>
     </row>
-    <row r="94" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -9639,8 +9578,8 @@
       <c r="BH94" s="10"/>
       <c r="BI94" s="10"/>
       <c r="BJ94" s="10"/>
-      <c r="BK94" s="24"/>
-      <c r="BL94" s="10"/>
+      <c r="BK94" s="10"/>
+      <c r="BL94" s="24"/>
       <c r="BM94" s="10"/>
       <c r="BN94" s="10"/>
       <c r="BO94" s="10"/>
@@ -9652,7 +9591,7 @@
       <c r="BU94" s="10"/>
       <c r="BV94" s="11"/>
     </row>
-    <row r="95" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -9718,8 +9657,8 @@
       <c r="BI95" s="10"/>
       <c r="BJ95" s="10"/>
       <c r="BK95" s="10"/>
-      <c r="BL95" s="24"/>
-      <c r="BM95" s="10"/>
+      <c r="BL95" s="10"/>
+      <c r="BM95" s="24"/>
       <c r="BN95" s="10"/>
       <c r="BO95" s="10"/>
       <c r="BP95" s="10"/>
@@ -9730,7 +9669,7 @@
       <c r="BU95" s="10"/>
       <c r="BV95" s="11"/>
     </row>
-    <row r="96" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -9797,8 +9736,8 @@
       <c r="BJ96" s="10"/>
       <c r="BK96" s="10"/>
       <c r="BL96" s="10"/>
-      <c r="BM96" s="24"/>
-      <c r="BN96" s="10"/>
+      <c r="BM96" s="10"/>
+      <c r="BN96" s="24"/>
       <c r="BO96" s="10"/>
       <c r="BP96" s="10"/>
       <c r="BQ96" s="10"/>
@@ -9808,7 +9747,7 @@
       <c r="BU96" s="10"/>
       <c r="BV96" s="11"/>
     </row>
-    <row r="97" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -9876,8 +9815,8 @@
       <c r="BK97" s="10"/>
       <c r="BL97" s="10"/>
       <c r="BM97" s="10"/>
-      <c r="BN97" s="24"/>
-      <c r="BO97" s="10"/>
+      <c r="BN97" s="10"/>
+      <c r="BO97" s="24"/>
       <c r="BP97" s="10"/>
       <c r="BQ97" s="10"/>
       <c r="BR97" s="10"/>
@@ -9886,7 +9825,7 @@
       <c r="BU97" s="10"/>
       <c r="BV97" s="11"/>
     </row>
-    <row r="98" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -9955,8 +9894,8 @@
       <c r="BL98" s="10"/>
       <c r="BM98" s="10"/>
       <c r="BN98" s="10"/>
-      <c r="BO98" s="24"/>
-      <c r="BP98" s="10"/>
+      <c r="BO98" s="10"/>
+      <c r="BP98" s="24"/>
       <c r="BQ98" s="10"/>
       <c r="BR98" s="10"/>
       <c r="BS98" s="10"/>
@@ -9964,7 +9903,7 @@
       <c r="BU98" s="10"/>
       <c r="BV98" s="11"/>
     </row>
-    <row r="99" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -10034,15 +9973,15 @@
       <c r="BM99" s="10"/>
       <c r="BN99" s="10"/>
       <c r="BO99" s="10"/>
-      <c r="BP99" s="24"/>
-      <c r="BQ99" s="10"/>
+      <c r="BP99" s="10"/>
+      <c r="BQ99" s="24"/>
       <c r="BR99" s="10"/>
       <c r="BS99" s="10"/>
       <c r="BT99" s="10"/>
       <c r="BU99" s="10"/>
       <c r="BV99" s="11"/>
     </row>
-    <row r="100" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10113,14 +10052,14 @@
       <c r="BN100" s="10"/>
       <c r="BO100" s="10"/>
       <c r="BP100" s="10"/>
-      <c r="BQ100" s="24"/>
-      <c r="BR100" s="10"/>
+      <c r="BQ100" s="10"/>
+      <c r="BR100" s="24"/>
       <c r="BS100" s="10"/>
       <c r="BT100" s="10"/>
       <c r="BU100" s="10"/>
       <c r="BV100" s="11"/>
     </row>
-    <row r="101" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10192,13 +10131,13 @@
       <c r="BO101" s="10"/>
       <c r="BP101" s="10"/>
       <c r="BQ101" s="10"/>
-      <c r="BR101" s="24"/>
-      <c r="BS101" s="10"/>
+      <c r="BR101" s="10"/>
+      <c r="BS101" s="24"/>
       <c r="BT101" s="10"/>
       <c r="BU101" s="10"/>
       <c r="BV101" s="11"/>
     </row>
-    <row r="102" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -10271,12 +10210,12 @@
       <c r="BP102" s="10"/>
       <c r="BQ102" s="10"/>
       <c r="BR102" s="10"/>
-      <c r="BS102" s="24"/>
-      <c r="BT102" s="10"/>
+      <c r="BS102" s="10"/>
+      <c r="BT102" s="24"/>
       <c r="BU102" s="10"/>
       <c r="BV102" s="11"/>
     </row>
-    <row r="103" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -10350,167 +10289,91 @@
       <c r="BQ103" s="10"/>
       <c r="BR103" s="10"/>
       <c r="BS103" s="10"/>
-      <c r="BT103" s="24"/>
-      <c r="BU103" s="10"/>
+      <c r="BT103" s="10"/>
+      <c r="BU103" s="24"/>
       <c r="BV103" s="11"/>
     </row>
-    <row r="104" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:74" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="9"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="10"/>
-      <c r="R104" s="10"/>
-      <c r="S104" s="10"/>
-      <c r="T104" s="10"/>
-      <c r="U104" s="10"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
-      <c r="X104" s="10"/>
-      <c r="Y104" s="10"/>
-      <c r="Z104" s="10"/>
-      <c r="AA104" s="10"/>
-      <c r="AB104" s="10"/>
-      <c r="AC104" s="10"/>
-      <c r="AD104" s="10"/>
-      <c r="AE104" s="10"/>
-      <c r="AF104" s="10"/>
-      <c r="AG104" s="10"/>
-      <c r="AH104" s="10"/>
-      <c r="AI104" s="10"/>
-      <c r="AJ104" s="10"/>
-      <c r="AK104" s="10"/>
-      <c r="AL104" s="10"/>
-      <c r="AM104" s="10"/>
-      <c r="AN104" s="10"/>
-      <c r="AO104" s="10"/>
-      <c r="AP104" s="10"/>
-      <c r="AQ104" s="10"/>
-      <c r="AR104" s="10"/>
-      <c r="AS104" s="10"/>
-      <c r="AT104" s="10"/>
-      <c r="AU104" s="10"/>
-      <c r="AV104" s="10"/>
-      <c r="AW104" s="10"/>
-      <c r="AX104" s="10"/>
-      <c r="AY104" s="10"/>
-      <c r="AZ104" s="10"/>
-      <c r="BA104" s="10"/>
-      <c r="BB104" s="10"/>
-      <c r="BC104" s="10"/>
-      <c r="BD104" s="10"/>
-      <c r="BE104" s="10"/>
-      <c r="BF104" s="10"/>
-      <c r="BG104" s="10"/>
-      <c r="BH104" s="10"/>
-      <c r="BI104" s="10"/>
-      <c r="BJ104" s="10"/>
-      <c r="BK104" s="10"/>
-      <c r="BL104" s="10"/>
-      <c r="BM104" s="10"/>
-      <c r="BN104" s="10"/>
-      <c r="BO104" s="10"/>
-      <c r="BP104" s="10"/>
-      <c r="BQ104" s="10"/>
-      <c r="BR104" s="10"/>
-      <c r="BS104" s="10"/>
-      <c r="BT104" s="10"/>
-      <c r="BU104" s="24"/>
-      <c r="BV104" s="11"/>
-    </row>
-    <row r="105" spans="1:74" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4">
-        <v>104</v>
-      </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
-      <c r="X105" s="13"/>
-      <c r="Y105" s="13"/>
-      <c r="Z105" s="13"/>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="13"/>
-      <c r="AC105" s="13"/>
-      <c r="AD105" s="13"/>
-      <c r="AE105" s="13"/>
-      <c r="AF105" s="13"/>
-      <c r="AG105" s="13"/>
-      <c r="AH105" s="13"/>
-      <c r="AI105" s="13"/>
-      <c r="AJ105" s="13"/>
-      <c r="AK105" s="13"/>
-      <c r="AL105" s="13"/>
-      <c r="AM105" s="13"/>
-      <c r="AN105" s="13"/>
-      <c r="AO105" s="13"/>
-      <c r="AP105" s="13"/>
-      <c r="AQ105" s="13"/>
-      <c r="AR105" s="13"/>
-      <c r="AS105" s="13"/>
-      <c r="AT105" s="13"/>
-      <c r="AU105" s="13"/>
-      <c r="AV105" s="13"/>
-      <c r="AW105" s="13"/>
-      <c r="AX105" s="13"/>
-      <c r="AY105" s="13"/>
-      <c r="AZ105" s="13"/>
-      <c r="BA105" s="13"/>
-      <c r="BB105" s="13"/>
-      <c r="BC105" s="13"/>
-      <c r="BD105" s="13"/>
-      <c r="BE105" s="13"/>
-      <c r="BF105" s="13"/>
-      <c r="BG105" s="13"/>
-      <c r="BH105" s="13"/>
-      <c r="BI105" s="13"/>
-      <c r="BJ105" s="13"/>
-      <c r="BK105" s="13"/>
-      <c r="BL105" s="13"/>
-      <c r="BM105" s="13"/>
-      <c r="BN105" s="13"/>
-      <c r="BO105" s="13"/>
-      <c r="BP105" s="13"/>
-      <c r="BQ105" s="13"/>
-      <c r="BR105" s="13"/>
-      <c r="BS105" s="13"/>
-      <c r="BT105" s="13"/>
-      <c r="BU105" s="13"/>
-      <c r="BV105" s="27"/>
-    </row>
-    <row r="106" spans="1:74" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="13"/>
+      <c r="X104" s="13"/>
+      <c r="Y104" s="13"/>
+      <c r="Z104" s="13"/>
+      <c r="AA104" s="13"/>
+      <c r="AB104" s="13"/>
+      <c r="AC104" s="13"/>
+      <c r="AD104" s="13"/>
+      <c r="AE104" s="13"/>
+      <c r="AF104" s="13"/>
+      <c r="AG104" s="13"/>
+      <c r="AH104" s="13"/>
+      <c r="AI104" s="13"/>
+      <c r="AJ104" s="13"/>
+      <c r="AK104" s="13"/>
+      <c r="AL104" s="13"/>
+      <c r="AM104" s="13"/>
+      <c r="AN104" s="13"/>
+      <c r="AO104" s="13"/>
+      <c r="AP104" s="13"/>
+      <c r="AQ104" s="13"/>
+      <c r="AR104" s="13"/>
+      <c r="AS104" s="13"/>
+      <c r="AT104" s="13"/>
+      <c r="AU104" s="13"/>
+      <c r="AV104" s="13"/>
+      <c r="AW104" s="13"/>
+      <c r="AX104" s="13"/>
+      <c r="AY104" s="13"/>
+      <c r="AZ104" s="13"/>
+      <c r="BA104" s="13"/>
+      <c r="BB104" s="13"/>
+      <c r="BC104" s="13"/>
+      <c r="BD104" s="13"/>
+      <c r="BE104" s="13"/>
+      <c r="BF104" s="13"/>
+      <c r="BG104" s="13"/>
+      <c r="BH104" s="13"/>
+      <c r="BI104" s="13"/>
+      <c r="BJ104" s="13"/>
+      <c r="BK104" s="13"/>
+      <c r="BL104" s="13"/>
+      <c r="BM104" s="13"/>
+      <c r="BN104" s="13"/>
+      <c r="BO104" s="13"/>
+      <c r="BP104" s="13"/>
+      <c r="BQ104" s="13"/>
+      <c r="BR104" s="13"/>
+      <c r="BS104" s="13"/>
+      <c r="BT104" s="13"/>
+      <c r="BU104" s="13"/>
+      <c r="BV104" s="27"/>
+    </row>
+    <row r="105" spans="1:74" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
